--- a/Bases/wb_data.xlsx
+++ b/Bases/wb_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030671F-8E69-49E8-978D-86189F4CE7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD842F5D-6970-4BC2-9BF1-E51DB099041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="604">
   <si>
     <t>Environment: Food Security</t>
   </si>
@@ -2025,6 +2025,9 @@
   <si>
     <t>https://washdata.org/data/household#!/table?geo0=region&amp;geo1=sdg</t>
   </si>
+  <si>
+    <t>teste</t>
+  </si>
 </sst>
 </file>
 
@@ -2429,9 +2432,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:AB726"/>
+  <dimension ref="A1:AF726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2445,7 +2450,7 @@
     <col min="28" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>543</v>
       </c>
@@ -2530,8 +2535,11 @@
       <c r="AB1" s="15" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AF1" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>228</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>93.437610000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>228</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>93.863939999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>228</v>
       </c>
@@ -2789,7 +2797,7 @@
         <v>94.286500000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>228</v>
       </c>
@@ -2875,7 +2883,7 @@
         <v>94.705010000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>228</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>95.119720000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>228</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>95.530420000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>228</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>95.937139999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>228</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>96.337969999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>228</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>96.734660000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>228</v>
       </c>
@@ -3391,7 +3399,7 @@
         <v>96.929770000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>228</v>
       </c>
@@ -3477,7 +3485,7 @@
         <v>97.125519999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>228</v>
       </c>
@@ -3563,7 +3571,7 @@
         <v>97.321669999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>228</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>97.518209999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>228</v>
       </c>
@@ -3733,7 +3741,7 @@
       </c>
       <c r="AB15"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>228</v>
       </c>

--- a/Bases/wb_data.xlsx
+++ b/Bases/wb_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Macro\Data_Macro_ESG\Macro_2021.2\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B4804-AF90-4F3C-BAA4-C9B95F92207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F69A2-5CB9-4774-B3A2-3DA7BBA78392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,7 +1301,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AB726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
